--- a/lost and found.xlsx
+++ b/lost and found.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S627-4-MacBook-82\Desktop\Мурашов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="225">
   <si>
     <t>Название</t>
   </si>
@@ -592,6 +592,114 @@
   </si>
   <si>
     <t>796298179 45</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>JPEG 11</t>
+  </si>
+  <si>
+    <t>JPEG 12</t>
+  </si>
+  <si>
+    <t>JPEG 13</t>
+  </si>
+  <si>
+    <t>JPEG 14</t>
+  </si>
+  <si>
+    <t>JPEG 15</t>
+  </si>
+  <si>
+    <t>JPEG 16</t>
+  </si>
+  <si>
+    <t>JPEG 17</t>
+  </si>
+  <si>
+    <t>JPEG 18</t>
+  </si>
+  <si>
+    <t>JPEG 19</t>
+  </si>
+  <si>
+    <t>JPEG 20</t>
+  </si>
+  <si>
+    <t>JPEG 21</t>
+  </si>
+  <si>
+    <t>JPEG 22</t>
+  </si>
+  <si>
+    <t>JPEG 23</t>
+  </si>
+  <si>
+    <t>JPEG 24</t>
+  </si>
+  <si>
+    <t>JPEG 25</t>
+  </si>
+  <si>
+    <t>JPEG 26</t>
+  </si>
+  <si>
+    <t>JPEG 27</t>
+  </si>
+  <si>
+    <t>JPEG 28</t>
+  </si>
+  <si>
+    <t>JPEG 29</t>
+  </si>
+  <si>
+    <t>JPEG 30</t>
+  </si>
+  <si>
+    <t>JPEG 31</t>
+  </si>
+  <si>
+    <t>JPEG 32</t>
+  </si>
+  <si>
+    <t>JPEG 33</t>
+  </si>
+  <si>
+    <t>JPEG 34</t>
+  </si>
+  <si>
+    <t>JPEG 35</t>
+  </si>
+  <si>
+    <t>JPEG 36</t>
+  </si>
+  <si>
+    <t>JPEG 37</t>
+  </si>
+  <si>
+    <t>JPEG 38</t>
+  </si>
+  <si>
+    <t>JPEG 39</t>
+  </si>
+  <si>
+    <t>JPEG 40</t>
+  </si>
+  <si>
+    <t>JPEG 41</t>
+  </si>
+  <si>
+    <t>JPEG 42</t>
+  </si>
+  <si>
+    <t>JPEG 43</t>
+  </si>
+  <si>
+    <t>JPEG 44</t>
+  </si>
+  <si>
+    <t>JPEG 45</t>
   </si>
 </sst>
 </file>
@@ -914,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,9 +1034,10 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -946,6 +1055,9 @@
       </c>
       <c r="F1" t="s">
         <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -958,8 +1070,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +1080,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +1102,9 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1010,6 +1125,9 @@
       <c r="F2" t="s">
         <v>154</v>
       </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1030,6 +1148,9 @@
       <c r="F3" t="s">
         <v>155</v>
       </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1050,6 +1171,9 @@
       <c r="F4" t="s">
         <v>156</v>
       </c>
+      <c r="G4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1070,6 +1194,9 @@
       <c r="F5" t="s">
         <v>157</v>
       </c>
+      <c r="G5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1090,6 +1217,9 @@
       <c r="F6" t="s">
         <v>158</v>
       </c>
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1110,6 +1240,9 @@
       <c r="F7" t="s">
         <v>159</v>
       </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1130,6 +1263,9 @@
       <c r="F8" t="s">
         <v>160</v>
       </c>
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1150,6 +1286,9 @@
       <c r="F9" t="s">
         <v>161</v>
       </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1170,6 +1309,9 @@
       <c r="F10" t="s">
         <v>162</v>
       </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1190,6 +1332,9 @@
       <c r="F11" t="s">
         <v>163</v>
       </c>
+      <c r="G11" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1210,6 +1355,9 @@
       <c r="F12" t="s">
         <v>164</v>
       </c>
+      <c r="G12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1230,6 +1378,9 @@
       <c r="F13" t="s">
         <v>165</v>
       </c>
+      <c r="G13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1250,6 +1401,9 @@
       <c r="F14" t="s">
         <v>166</v>
       </c>
+      <c r="G14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1270,6 +1424,9 @@
       <c r="F15" t="s">
         <v>167</v>
       </c>
+      <c r="G15" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1290,8 +1447,11 @@
       <c r="F16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1310,8 +1470,11 @@
       <c r="F17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1330,8 +1493,11 @@
       <c r="F18" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1350,8 +1516,11 @@
       <c r="F19" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1370,8 +1539,11 @@
       <c r="F20" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1390,8 +1562,11 @@
       <c r="F21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1410,8 +1585,11 @@
       <c r="F22" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1430,8 +1608,11 @@
       <c r="F23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1450,8 +1631,11 @@
       <c r="F24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1470,8 +1654,11 @@
       <c r="F25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1490,8 +1677,11 @@
       <c r="F26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1510,8 +1700,11 @@
       <c r="F27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1530,8 +1723,11 @@
       <c r="F28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1550,8 +1746,11 @@
       <c r="F29" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1570,8 +1769,11 @@
       <c r="F30" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1590,8 +1792,11 @@
       <c r="F31" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1610,8 +1815,11 @@
       <c r="F32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1630,8 +1838,11 @@
       <c r="F33" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1650,8 +1861,11 @@
       <c r="F34" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1670,8 +1884,11 @@
       <c r="F35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1689,6 +1906,9 @@
       </c>
       <c r="F36" t="s">
         <v>188</v>
+      </c>
+      <c r="G36" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
